--- a/bear_market_periods.xlsx
+++ b/bear_market_periods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulruedi/Desktop/sp500app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{383DCE60-8128-5745-B8E8-94630BB4D7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F7FFDD-3B24-5B4C-87AF-D912E5CBEB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="25600" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="6420" windowWidth="33040" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bear Market Periods" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Bear Market Period</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>January 3, 2022 - October 12, 2022</t>
+  </si>
+  <si>
+    <t>September 28, 1932 - February 27, 1933</t>
+  </si>
+  <si>
+    <t>February 21, 1934 - March 14, 1935</t>
+  </si>
+  <si>
+    <t>March 10, 1937 - March 31, 1938</t>
+  </si>
+  <si>
+    <t>September 9, 1939 - June 5, 1940</t>
+  </si>
+  <si>
+    <t>November 12, 1940 - April 28, 1942</t>
+  </si>
+  <si>
+    <t>September 16, 1929 - June 1, 1932</t>
   </si>
 </sst>
 </file>
@@ -154,12 +172,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,273 +517,375 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>192.3</v>
-      </c>
-      <c r="C2">
-        <v>157.74</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="3">
+        <v>31.71</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.4000000000000004</v>
       </c>
       <c r="D2" s="2">
-        <v>0.182</v>
+        <v>0.8619</v>
       </c>
       <c r="E2">
-        <v>133</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1340.25</v>
-      </c>
-      <c r="C3">
-        <v>1026.3499999999999</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <v>8.36</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.53</v>
       </c>
       <c r="D3" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="E3">
-        <v>196</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>995.15</v>
-      </c>
-      <c r="C4">
-        <v>775.94</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11.43</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.06</v>
       </c>
       <c r="D4" s="2">
-        <v>0.22</v>
+        <v>0.2984</v>
       </c>
       <c r="E4">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>992.11</v>
-      </c>
-      <c r="C5">
-        <v>629.74</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.5</v>
       </c>
       <c r="D5" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.54469999999999996</v>
       </c>
       <c r="E5">
-        <v>543</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1100.75</v>
-      </c>
-      <c r="C6">
-        <v>800.5</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>13.17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.09</v>
       </c>
       <c r="D6" s="2">
-        <v>0.48</v>
+        <v>0.30980000000000002</v>
       </c>
       <c r="E6">
-        <v>630</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1004</v>
-      </c>
-      <c r="C7">
-        <v>742.12</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11.36</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.47</v>
       </c>
       <c r="D7" s="2">
-        <v>0.27</v>
+        <v>0.34239999999999998</v>
       </c>
       <c r="E7">
-        <v>363</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1400</v>
-      </c>
-      <c r="C8">
-        <v>877.01</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>19.25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15.75</v>
       </c>
       <c r="D8" s="2">
-        <v>0.27</v>
+        <v>0.182</v>
       </c>
       <c r="E8">
-        <v>622</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>2723.99</v>
-      </c>
-      <c r="C9">
-        <v>1938.83</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>72.64</v>
+      </c>
+      <c r="C9" s="3">
+        <v>52.32</v>
       </c>
       <c r="D9" s="2">
-        <v>0.33500000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E9">
-        <v>101</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>3600.9</v>
-      </c>
-      <c r="C10">
-        <v>1469.25</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>94.059997999999993</v>
+      </c>
+      <c r="C10" s="3">
+        <v>69.290001000000004</v>
       </c>
       <c r="D10" s="2">
-        <v>0.19900000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="E10">
-        <v>87</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1244.55</v>
-      </c>
-      <c r="C11">
-        <v>1070</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>108.370003</v>
+      </c>
+      <c r="C11" s="3">
+        <v>69.290001000000004</v>
       </c>
       <c r="D11" s="2">
-        <v>0.193</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="E11">
-        <v>45</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>1525</v>
-      </c>
-      <c r="C12">
-        <v>774.39</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>120.239998</v>
+      </c>
+      <c r="C12" s="3">
+        <v>62.279998999999997</v>
       </c>
       <c r="D12" s="2">
-        <v>0.49099999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E12">
-        <v>929</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>1565.15</v>
-      </c>
-      <c r="C13">
-        <v>676.53</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>107.83000199999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>86.900002000000001</v>
       </c>
       <c r="D13" s="2">
-        <v>0.56799999999999995</v>
+        <v>0.27</v>
       </c>
       <c r="E13">
-        <v>517</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>1370.58</v>
+        <v>140.52000000000001</v>
       </c>
       <c r="C14">
-        <v>1044.9000000000001</v>
+        <v>102.42</v>
       </c>
       <c r="D14" s="2">
-        <v>0.21579999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="E14">
-        <v>155</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>2682.57</v>
+        <v>336.77</v>
       </c>
       <c r="C15">
-        <v>2238.2399999999998</v>
+        <v>223.92</v>
       </c>
       <c r="D15" s="2">
-        <v>0.19800000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E15">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>2940.91</v>
+        <v>368.95</v>
       </c>
       <c r="C16">
-        <v>2346.58</v>
+        <v>295.45999999999998</v>
       </c>
       <c r="D16" s="2">
-        <v>0.33900000000000002</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="E16">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1186.75</v>
+      </c>
+      <c r="C17">
+        <v>957.28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1527.46</v>
+      </c>
+      <c r="C18">
+        <v>776.76</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="E18">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1565.15</v>
+      </c>
+      <c r="C19">
+        <v>676.53</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E19">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1360.48</v>
+      </c>
+      <c r="C20">
+        <v>1099.23</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="E20">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>2930.75</v>
+      </c>
+      <c r="C21">
+        <v>2351.1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>3386.15</v>
+      </c>
+      <c r="C22">
+        <v>2237.4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>4818.62</v>
-      </c>
-      <c r="C17">
-        <v>3586.4</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B23">
+        <v>4796.5600000000004</v>
+      </c>
+      <c r="C23">
+        <v>3577.03</v>
+      </c>
+      <c r="D23" s="2">
         <v>0.27550000000000002</v>
       </c>
-      <c r="E17">
+      <c r="E23">
         <v>282</v>
       </c>
     </row>
